--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90770.01131212733</v>
+        <v>16586910.44092464</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90770.01131212733</v>
+        <v>16586910.44092464</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22815.66454458828</v>
+        <v>2797648.80126967</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22815.66454458828</v>
+        <v>2797648.80126967</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342135313.714206</v>
+        <v>52016020.27081793</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10829.66577751821</v>
+        <v>1169025.642803608</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20682.17081149242</v>
+        <v>2186735.272719222</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30507.06128521003</v>
+        <v>3209363.561852172</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40460.41997551375</v>
+        <v>4214255.590141188</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50224.64464002888</v>
+        <v>5259327.687165449</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59944.55176253853</v>
+        <v>6303789.827617639</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69534.5090772814</v>
+        <v>7409664.161329466</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79186.84524784351</v>
+        <v>8507408.127628228</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89166.51571157661</v>
+        <v>9524873.975514283</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98688.76493990356</v>
+        <v>10616919.26769336</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>108147.4671219873</v>
+        <v>11714926.80683818</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>117579.2009435896</v>
+        <v>12811088.71368276</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>127010.9347651919</v>
+        <v>13907250.62052735</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136917.7338478983</v>
+        <v>14920572.26743378</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>148018.3153537008</v>
+        <v>15666313.97661011</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>382</v>
@@ -27058,7 +27058,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>329.0000000000847</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>85</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>142</v>
